--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf5-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf5-Ror2.xlsx
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1350926666666667</v>
+        <v>0.04009133333333333</v>
       </c>
       <c r="N2">
-        <v>0.405278</v>
+        <v>0.120274</v>
       </c>
       <c r="O2">
-        <v>0.03398966953169371</v>
+        <v>0.01033409631432067</v>
       </c>
       <c r="P2">
-        <v>0.03398966953169372</v>
+        <v>0.01033409631432067</v>
       </c>
       <c r="Q2">
-        <v>0.004107357437333333</v>
+        <v>0.001218936898666667</v>
       </c>
       <c r="R2">
-        <v>0.036966216936</v>
+        <v>0.010970432088</v>
       </c>
       <c r="S2">
-        <v>0.03398966953169371</v>
+        <v>0.01033409631432067</v>
       </c>
       <c r="T2">
-        <v>0.03398966953169372</v>
+        <v>0.01033409631432067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>6.733711</v>
       </c>
       <c r="O3">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
       <c r="P3">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
       <c r="Q3">
         <v>0.06824391641466666</v>
@@ -632,10 +632,10 @@
         <v>0.614195247732</v>
       </c>
       <c r="S3">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
       <c r="T3">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>4.784575</v>
       </c>
       <c r="O4">
-        <v>0.4012705429349815</v>
+        <v>0.4110968195378122</v>
       </c>
       <c r="P4">
-        <v>0.4012705429349816</v>
+        <v>0.4110968195378122</v>
       </c>
       <c r="Q4">
         <v>0.04849007276666667</v>
@@ -694,10 +694,10 @@
         <v>0.4364106549</v>
       </c>
       <c r="S4">
-        <v>0.4012705429349815</v>
+        <v>0.4110968195378122</v>
       </c>
       <c r="T4">
-        <v>0.4012705429349816</v>
+        <v>0.4110968195378122</v>
       </c>
     </row>
   </sheetData>
